--- a/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Antenna_3/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Antenna_3/Transformed_Coordinates.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-50.51141335607647</v>
+        <v>-50.51141335607623</v>
       </c>
       <c r="H2" t="n">
         <v>155.9341524585572</v>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.394458486960288</v>
+        <v>-0.3944584869601133</v>
       </c>
       <c r="H3" t="n">
-        <v>154.6413376074908</v>
+        <v>154.6413376074909</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>43.05226976008474</v>
+        <v>43.05226976008491</v>
       </c>
       <c r="H4" t="n">
-        <v>153.5198334880392</v>
+        <v>153.5198334880393</v>
       </c>
     </row>
     <row r="5">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-66.86700105472259</v>
+        <v>-66.86700105472252</v>
       </c>
       <c r="H5" t="n">
         <v>152.0237969314047</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>77.07897140803878</v>
+        <v>77.07897140803885</v>
       </c>
       <c r="H6" t="n">
-        <v>132.3511370160417</v>
+        <v>132.3511370160416</v>
       </c>
     </row>
     <row r="7">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>83.49236527827131</v>
+        <v>83.49236527827155</v>
       </c>
       <c r="H7" t="n">
         <v>137.3613694276378</v>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>45.68214424801833</v>
+        <v>45.68214424801857</v>
       </c>
       <c r="H8" t="n">
         <v>121.2364448861517</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>93.13321782069553</v>
+        <v>93.13321782069572</v>
       </c>
       <c r="H9" t="n">
-        <v>119.2910808027854</v>
+        <v>119.2910808027855</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>98.00730571427646</v>
+        <v>98.00730571427664</v>
       </c>
       <c r="H10" t="n">
-        <v>117.0465642713069</v>
+        <v>117.0465642713071</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>75.33448316433798</v>
+        <v>75.33448316433805</v>
       </c>
       <c r="H11" t="n">
         <v>115.5471513130031</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>71.40004404382171</v>
+        <v>71.40004404382178</v>
       </c>
       <c r="H12" t="n">
         <v>101.8420676091556</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>92.16914861215693</v>
+        <v>92.16914861215719</v>
       </c>
       <c r="H13" t="n">
-        <v>108.3175382120642</v>
+        <v>108.3175382120643</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>124.4727625852003</v>
+        <v>124.4727625852005</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1055878860006</v>
+        <v>100.1055878860007</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>105.2311859360563</v>
+        <v>105.2311859360565</v>
       </c>
       <c r="H15" t="n">
-        <v>97.71803001472989</v>
+        <v>97.71803001473002</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>105.610459468373</v>
+        <v>105.6104594683732</v>
       </c>
       <c r="H16" t="n">
-        <v>95.31246812955727</v>
+        <v>95.31246812955742</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>87.61500098483138</v>
+        <v>87.61500098483145</v>
       </c>
       <c r="H17" t="n">
-        <v>93.16681804480963</v>
+        <v>93.16681804480953</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>85.17885512308247</v>
+        <v>85.17885512308254</v>
       </c>
       <c r="H18" t="n">
-        <v>90.92333814794539</v>
+        <v>90.92333814794532</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>118.2184291744873</v>
+        <v>118.2184291744876</v>
       </c>
       <c r="H19" t="n">
-        <v>97.80146416471243</v>
+        <v>97.80146416471248</v>
       </c>
     </row>
     <row r="20">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>124.4180386161462</v>
+        <v>124.4180386161464</v>
       </c>
       <c r="H20" t="n">
         <v>101.3892400379913</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>104.3794553391933</v>
+        <v>104.3794553391934</v>
       </c>
       <c r="H21" t="n">
-        <v>99.9223035689479</v>
+        <v>99.92230356894804</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>105.6578682719479</v>
+        <v>105.6578682719481</v>
       </c>
       <c r="H22" t="n">
-        <v>97.34632509317666</v>
+        <v>97.34632509317682</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>85.80138945292656</v>
+        <v>85.80138945292663</v>
       </c>
       <c r="H23" t="n">
-        <v>95.18770553737681</v>
+        <v>95.18770553737674</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>94.10673588526568</v>
+        <v>94.10673588526534</v>
       </c>
       <c r="H24" t="n">
-        <v>92.6593989387959</v>
+        <v>92.65939893879559</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>95.5803051945325</v>
+        <v>95.58030519453267</v>
       </c>
       <c r="H25" t="n">
-        <v>139.3447070489734</v>
+        <v>139.3447070489735</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>89.85383523753745</v>
+        <v>89.85383523753764</v>
       </c>
       <c r="H26" t="n">
-        <v>133.1402550656757</v>
+        <v>133.1402550656758</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>107.6418927480462</v>
+        <v>107.6418927480464</v>
       </c>
       <c r="H29" t="n">
-        <v>109.6697094923433</v>
+        <v>109.6697094923434</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>115.1240356421373</v>
+        <v>115.1240356421375</v>
       </c>
       <c r="H30" t="n">
-        <v>99.03475017337678</v>
+        <v>99.03475017337691</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>18.47419389073857</v>
+        <v>18.47419389073874</v>
       </c>
       <c r="H31" t="n">
-        <v>147.6120998046456</v>
+        <v>147.6120998046457</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>90.31690256277086</v>
+        <v>90.31690256277052</v>
       </c>
       <c r="H33" t="n">
-        <v>129.8359421300297</v>
+        <v>129.8359421300295</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>89.39035405342575</v>
+        <v>89.3903540534254</v>
       </c>
       <c r="H34" t="n">
-        <v>99.07195263880534</v>
+        <v>99.07195263880507</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>125.2341033858714</v>
+        <v>125.2341033858716</v>
       </c>
       <c r="H36" t="n">
-        <v>101.1593714027867</v>
+        <v>101.1593714027868</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>67.03220114531713</v>
+        <v>67.03220114531678</v>
       </c>
       <c r="H37" t="n">
-        <v>108.904569629779</v>
+        <v>108.9045696297788</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>-36.98251470632427</v>
+        <v>-36.9825147063241</v>
       </c>
       <c r="H39" t="n">
         <v>142.4172554695915</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>105.000100569286</v>
+        <v>105.0001005692859</v>
       </c>
       <c r="H40" t="n">
-        <v>93.5366656845631</v>
+        <v>93.53666568456289</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>101.6255540327321</v>
+        <v>101.6255540327323</v>
       </c>
       <c r="H42" t="n">
-        <v>127.7688538469899</v>
+        <v>127.76885384699</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>89.82006353841318</v>
+        <v>89.82006353841284</v>
       </c>
       <c r="H44" t="n">
-        <v>94.08846648853232</v>
+        <v>94.08846648853202</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>117.5931109639952</v>
+        <v>117.5931109639954</v>
       </c>
       <c r="H47" t="n">
-        <v>94.58121549481881</v>
+        <v>94.58121549481896</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>111.5883573098752</v>
+        <v>111.5883573098753</v>
       </c>
       <c r="H49" t="n">
-        <v>114.5587881817348</v>
+        <v>114.5587881817349</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>94.79006197238489</v>
+        <v>94.79006197238455</v>
       </c>
       <c r="H50" t="n">
-        <v>100.1337617693143</v>
+        <v>100.133761769314</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>69.59282335317313</v>
+        <v>69.5928233531733</v>
       </c>
       <c r="H51" t="n">
-        <v>107.4370035720168</v>
+        <v>107.4370035720169</v>
       </c>
     </row>
     <row r="52">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-27.26029139244363</v>
+        <v>-27.2602913924438</v>
       </c>
       <c r="H52" t="n">
-        <v>134.3192867851298</v>
+        <v>134.3192867851297</v>
       </c>
     </row>
     <row r="53">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>33.15647610662815</v>
+        <v>33.1564761066278</v>
       </c>
       <c r="H53" t="n">
-        <v>133.7775343743554</v>
+        <v>133.7775343743553</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>67.94705385912422</v>
+        <v>67.9470538591244</v>
       </c>
       <c r="H54" t="n">
-        <v>134.8346297851034</v>
+        <v>134.8346297851035</v>
       </c>
     </row>
     <row r="55">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>59.95029889151171</v>
+        <v>59.95029889151153</v>
       </c>
       <c r="H57" t="n">
         <v>112.4289046924334</v>
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>110.3791753759386</v>
+        <v>110.3791753759384</v>
       </c>
       <c r="H58" t="n">
-        <v>91.84480794582423</v>
+        <v>91.84480794582414</v>
       </c>
     </row>
     <row r="59">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>112.2438319165393</v>
+        <v>112.2438319165389</v>
       </c>
       <c r="H59" t="n">
-        <v>90.20607062712706</v>
+        <v>90.20607062712688</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>92.18437210163266</v>
+        <v>92.18437210163283</v>
       </c>
       <c r="H60" t="n">
-        <v>89.11561554239321</v>
+        <v>89.11561554239331</v>
       </c>
     </row>
     <row r="61">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>71.31135320244984</v>
+        <v>71.31135320244967</v>
       </c>
       <c r="H63" t="n">
-        <v>74.16351688925265</v>
+        <v>74.16351688925255</v>
       </c>
     </row>
     <row r="64">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>144.9346446322522</v>
+        <v>144.934644632252</v>
       </c>
       <c r="H64" t="n">
-        <v>61.0987704869728</v>
+        <v>61.09877048697267</v>
       </c>
     </row>
     <row r="65">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>124.3569267399747</v>
+        <v>124.3569267399744</v>
       </c>
       <c r="H65" t="n">
-        <v>59.41872726933718</v>
+        <v>59.41872726933691</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>104.8172376743952</v>
+        <v>104.8172376743954</v>
       </c>
       <c r="H66" t="n">
-        <v>57.69103312292375</v>
+        <v>57.69103312292388</v>
       </c>
     </row>
     <row r="67">
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>67.3889203426787</v>
+        <v>67.38892034267852</v>
       </c>
       <c r="H69" t="n">
-        <v>58.0619695337226</v>
+        <v>58.06196953372245</v>
       </c>
     </row>
     <row r="70">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>124.0483467269614</v>
+        <v>124.0483467269613</v>
       </c>
       <c r="H70" t="n">
-        <v>64.3912069742658</v>
+        <v>64.39120697426567</v>
       </c>
     </row>
     <row r="71">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>119.3813151093784</v>
+        <v>119.3813151093781</v>
       </c>
       <c r="H71" t="n">
-        <v>62.1786452986502</v>
+        <v>62.17864529864994</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>113.6938654777778</v>
+        <v>113.693865477778</v>
       </c>
       <c r="H72" t="n">
-        <v>60.84101576795754</v>
+        <v>60.84101576795767</v>
       </c>
     </row>
     <row r="73">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>112.5032656569787</v>
+        <v>112.5032656569791</v>
       </c>
       <c r="H74" t="n">
-        <v>63.15406190854748</v>
+        <v>63.15406190854772</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>99.14469631611999</v>
+        <v>99.14469631612016</v>
       </c>
       <c r="H75" t="n">
-        <v>65.47323048269286</v>
+        <v>65.47323048269297</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>130.9955087733854</v>
+        <v>130.9955087733851</v>
       </c>
       <c r="H76" t="n">
-        <v>71.16411602578793</v>
+        <v>71.16411602578764</v>
       </c>
     </row>
     <row r="77">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>76.63510428694184</v>
+        <v>76.63510428694218</v>
       </c>
       <c r="H77" t="n">
-        <v>67.42039311934299</v>
+        <v>67.42039311934322</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>25.13790481582014</v>
+        <v>25.13790481581979</v>
       </c>
       <c r="H78" t="n">
-        <v>120.2839597738606</v>
+        <v>120.2839597738604</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>76.76398283444044</v>
+        <v>76.76398283444027</v>
       </c>
       <c r="H79" t="n">
-        <v>120.0392866010608</v>
+        <v>120.0392866010607</v>
       </c>
     </row>
     <row r="80">
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>-34.28911792607411</v>
+        <v>-34.28911792607376</v>
       </c>
       <c r="H80" t="n">
-        <v>106.6591972943754</v>
+        <v>106.6591972943756</v>
       </c>
     </row>
     <row r="81">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>96.47830177710671</v>
+        <v>96.47830177710652</v>
       </c>
       <c r="H81" t="n">
-        <v>97.49964343028127</v>
+        <v>97.49964343028118</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>77.82291473122521</v>
+        <v>77.8229147312254</v>
       </c>
       <c r="H82" t="n">
-        <v>64.53710332552586</v>
+        <v>64.53710332552599</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.21237851754533</v>
+        <v>9.212378517545504</v>
       </c>
       <c r="H83" t="n">
-        <v>101.6636245814676</v>
+        <v>101.6636245814677</v>
       </c>
     </row>
     <row r="84">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>37.24017333752632</v>
+        <v>37.24017333752604</v>
       </c>
       <c r="H85" t="n">
-        <v>120.6719199037109</v>
+        <v>120.6719199037107</v>
       </c>
     </row>
     <row r="86">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>-32.30514899355828</v>
+        <v>-32.30514899355793</v>
       </c>
       <c r="H86" t="n">
-        <v>124.2127655824467</v>
+        <v>124.2127655824468</v>
       </c>
     </row>
     <row r="87">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>113.3245450300729</v>
+        <v>113.3245450300726</v>
       </c>
       <c r="H88" t="n">
-        <v>71.96153126422068</v>
+        <v>71.96153126422045</v>
       </c>
     </row>
     <row r="89">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>88.59804228338743</v>
+        <v>88.5980422833876</v>
       </c>
       <c r="H90" t="n">
-        <v>77.76504848080592</v>
+        <v>77.76504848080602</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>25.41895192272459</v>
+        <v>25.41895192272431</v>
       </c>
       <c r="H91" t="n">
-        <v>83.82507817160709</v>
+        <v>83.82507817160683</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>105.0602403716468</v>
+        <v>105.060240371647</v>
       </c>
       <c r="H92" t="n">
-        <v>62.16210361600375</v>
+        <v>62.16210361600387</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>96.52490791853155</v>
+        <v>96.52490791853138</v>
       </c>
       <c r="H93" t="n">
-        <v>70.95462921275538</v>
+        <v>70.95462921275526</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>86.1864488884399</v>
+        <v>86.18644888843973</v>
       </c>
       <c r="H94" t="n">
-        <v>53.61188122426019</v>
+        <v>53.61188122426005</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>111.5368406001414</v>
+        <v>111.5368406001411</v>
       </c>
       <c r="H95" t="n">
-        <v>58.47422463087675</v>
+        <v>58.47422463087639</v>
       </c>
     </row>
     <row r="96">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>114.6276448436173</v>
+        <v>114.6276448436177</v>
       </c>
       <c r="H96" t="n">
-        <v>57.58021948167797</v>
+        <v>57.58021948167825</v>
       </c>
     </row>
     <row r="97">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>94.98928360242864</v>
+        <v>94.98928360242881</v>
       </c>
       <c r="H97" t="n">
-        <v>55.39378056507296</v>
+        <v>55.39378056507309</v>
       </c>
     </row>
     <row r="98">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>113.3843918144909</v>
+        <v>113.3843918144906</v>
       </c>
       <c r="H99" t="n">
-        <v>57.03169456161459</v>
+        <v>57.03169456161422</v>
       </c>
     </row>
     <row r="100">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>98.13143934349186</v>
+        <v>98.1314393434922</v>
       </c>
       <c r="H100" t="n">
-        <v>55.24786144078261</v>
+        <v>55.2478614407829</v>
       </c>
     </row>
     <row r="101">
